--- a/notebooks/input_data/needs_match.xlsx
+++ b/notebooks/input_data/needs_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>AHSA Platform</t>
   </si>
@@ -145,19 +145,61 @@
     <t>eggXYt</t>
   </si>
   <si>
-    <t>Org_y</t>
+    <t>Org_x</t>
+  </si>
+  <si>
+    <t>American Student Assistance (ASA)</t>
   </si>
   <si>
     <t>BMW Foundation Herbert Quandt</t>
   </si>
   <si>
+    <t>Clint Taylor</t>
+  </si>
+  <si>
     <t>Clorox</t>
   </si>
   <si>
+    <t>Conduent</t>
+  </si>
+  <si>
+    <t>Deshpande Foundation</t>
+  </si>
+  <si>
+    <t>Firefly Innovations</t>
+  </si>
+  <si>
+    <t>Grupo Salinas</t>
+  </si>
+  <si>
     <t>Ingredion</t>
   </si>
   <si>
+    <t>Kevin Przybocki</t>
+  </si>
+  <si>
+    <t>Llamasoft</t>
+  </si>
+  <si>
+    <t>Merian Ventures</t>
+  </si>
+  <si>
+    <t>Mondi Group</t>
+  </si>
+  <si>
+    <t>Pfizer Inc.</t>
+  </si>
+  <si>
+    <t>Someone Else's Child Foundation</t>
+  </si>
+  <si>
     <t>The Hague Business Agency</t>
+  </si>
+  <si>
+    <t>The Kamath Family Foundation</t>
+  </si>
+  <si>
+    <t>Twilio.org</t>
   </si>
 </sst>
 </file>
@@ -515,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,28 +702,28 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -699,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -714,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -732,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -759,31 +801,31 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
         <v>1</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -794,13 +836,13 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -851,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -878,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -893,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -917,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -931,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -979,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1003,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1015,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1030,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1045,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1068,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1080,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1140,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1167,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1188,6 +1230,1882 @@
         <v>0</v>
       </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>2</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>2</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>3</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>3</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>3</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>3</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>3</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>2</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>2</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
         <v>0</v>
       </c>
     </row>
